--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D0B35-551E-F240-AEE3-4BEB41B53A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECF87F-7146-7240-91A4-831B8346371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="4460" windowWidth="28240" windowHeight="17440" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="9560" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>深度学习（resnet34）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,19 +86,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>三种融合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>——</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>80 125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resnet+竞争编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子空间（LDA）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子空间（LDA）+SVM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+lda+compcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+pca+compcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+LDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compCode+LDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+(pca+compcode)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(resnet+lda)+comcpde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权投票融合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,15 +170,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,6 +207,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -178,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,7 +256,49 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,15 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
@@ -534,162 +632,314 @@
     <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11">
+        <f>AVERAGE(C2:E2)</f>
+        <v>0.90766666666666662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="5">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D3" s="5">
         <v>0.75</v>
       </c>
       <c r="E3" s="6">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G16" si="0">AVERAGE(C3:E3)</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G4" s="11">
+        <f>AVERAGE(C4:E4)</f>
+        <v>0.80433333333333323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.71</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D6" s="7">
         <v>0.7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.80499999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.90633333333333344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C9" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.84900000000000009</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.84100000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8783333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8796666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.79833333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.93799999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.84900000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="F10" s="1">
-        <v>45</v>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.90400000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECF87F-7146-7240-91A4-831B8346371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F67CF-E456-DA49-A2A9-1A0E968C34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="7000" yWindow="4020" windowWidth="30240" windowHeight="17820" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>深度学习（resnet34）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,18 +62,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单特征</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>串联融合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CCA融合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resnet+PCA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>—</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resnet+lda+compcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,6 +123,42 @@
   </si>
   <si>
     <t>加权投票融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca(resnet+lda)+lda+compcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca(resnet+pca)+lda+compcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不如余弦相似度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略过了其他两个数据集的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca(resnet+pca)+lda+compcode+resnet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单特征/baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCA特征融合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,24 +231,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -234,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,58 +253,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,330 +589,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>14</v>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
+      <c r="A2" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D2" s="7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="11">
+      <c r="D2" s="4">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9">
         <f>AVERAGE(C2:E2)</f>
-        <v>0.90766666666666662</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E3" s="7">
         <v>0.9</v>
       </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G16" si="0">AVERAGE(C3:E3)</f>
-        <v>0.73333333333333339</v>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G18" si="0">AVERAGE(C3:E3)</f>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="6">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.88600000000000001</v>
       </c>
-      <c r="G4" s="11">
+      <c r="F4" s="8"/>
+      <c r="G4" s="9">
         <f>AVERAGE(C4:E4)</f>
-        <v>0.80433333333333323</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.84599999999999997</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.83966666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.71</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.9</v>
       </c>
-      <c r="G6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.80499999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.95033333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.877</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.91299999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.92899999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.59833333333333327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.629</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72133333333333338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.94366666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.94433333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.80499999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.90633333333333344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.84900000000000009</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.84100000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.8783333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.8796666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.79833333333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="E17" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="9">
+        <f>AVERAGE(C17:E17)</f>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.90666666666666662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.90400000000000003</v>
+      <c r="C18" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <f>AVERAGE(C19:E19)</f>
+        <v>0.95633333333333326</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F67CF-E456-DA49-A2A9-1A0E968C34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B7FD8-C218-8E4F-AC29-303EACA8448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="4020" windowWidth="30240" windowHeight="17820" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="3600" yWindow="900" windowWidth="30240" windowHeight="17820" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>深度学习（resnet34）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,6 +159,46 @@
   </si>
   <si>
     <t>CCA特征融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多特征混合融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompCode+PCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(resnet+LDA)+ComCpde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+PCA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+LDA+CompCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +312,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E32" sqref="A22:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,12 +687,12 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="E2" s="5">
-        <v>0.94</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9">
         <f>AVERAGE(C2:E2)</f>
-        <v>0.94499999999999995</v>
+        <v>0.94466666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -655,15 +704,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D3" s="6">
-        <v>0.84499999999999997</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E3" s="7">
-        <v>0.9</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G18" si="0">AVERAGE(C3:E3)</f>
-        <v>0.76500000000000001</v>
+        <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -678,12 +727,12 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="E4" s="7">
-        <v>0.88600000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9">
         <f>AVERAGE(C4:E4)</f>
-        <v>0.86699999999999999</v>
+        <v>0.8656666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -711,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.75</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="D6" s="6">
         <v>0.86799999999999999</v>
@@ -722,7 +771,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>0.83966666666666667</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -983,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="4">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="D19" s="4">
         <v>0.92800000000000005</v>
@@ -994,15 +1043,191 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f>AVERAGE(C19:E19)</f>
-        <v>0.95633333333333326</v>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.629</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.94899999999999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B7FD8-C218-8E4F-AC29-303EACA8448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAF987-AB22-BD4F-BE3F-7EF3642F3700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="900" windowWidth="30240" windowHeight="17820" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="6400" yWindow="3660" windowWidth="30240" windowHeight="17780" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
-  <si>
-    <t>深度学习（resnet34）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>子空间（PCA主成分分析）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>resnet+PCA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>竞争编码+PCA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,123 +76,245 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>resnet+竞争编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>avg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>加权投票融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不如余弦相似度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略过了其他两个数据集的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单特征/baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCA特征融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多特征混合融合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputsize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112×112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7×7, 64, stride 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv2.x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56×56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3×3 max pool, stride 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv3.x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28×28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv4.x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14×14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5.x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7×7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average pool, 128-d fc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet34</t>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>CompCode</t>
+  </si>
+  <si>
+    <t>Tongji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASIA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCA fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompCode+PCA</t>
+  </si>
+  <si>
+    <t>ResNet+CompCode</t>
+  </si>
+  <si>
+    <t>深度学习（ResNet34）</t>
+  </si>
+  <si>
+    <t>ResNet+PCA</t>
+  </si>
+  <si>
+    <t>ResNet+竞争编码</t>
+  </si>
+  <si>
+    <t>ResNet+LDA</t>
+  </si>
+  <si>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>(ResNet+LDA)+ComCpde</t>
+  </si>
+  <si>
+    <t>ResNet+PCA+CompCode</t>
+  </si>
+  <si>
+    <t>ResNet+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>CompCode+LDA</t>
+  </si>
+  <si>
+    <t>ResNet+(pca+CompCode)</t>
+  </si>
+  <si>
+    <t>ResNet+pca+CompCode</t>
+  </si>
+  <si>
     <t>子空间（LDA）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>子空间（LDA）+SVM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+lda+compcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+pca+compcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+LDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>compCode+LDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+(pca+compcode)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(resnet+lda)+comcpde</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权投票融合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cca(resnet+lda)+lda+compcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cca(resnet+pca)+lda+compcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉不如余弦相似度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>略过了其他两个数据集的测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cca(resnet+pca)+lda+compcode+resnet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单特征/baseline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCA特征融合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多特征混合融合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompCode+PCA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(resnet+LDA)+ComCpde</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+PCA+CompCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>(ResNet+LDA)+comcpde</t>
+  </si>
+  <si>
+    <t>cca(ResNet+LDA)+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>cca(ResNet+pca)+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>cca(ResNet+pca)+LDA+CompCode+ResNet</t>
+  </si>
+  <si>
+    <t>weighted vote fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposed method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca(ResNet+PCA)+LDA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手掌个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolyU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet+PCA+LDA+CompCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +349,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -248,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -271,6 +393,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -280,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,16 +479,49 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -339,6 +540,1158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2165350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="132664" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22ED7C2-92FB-E20C-D9DC-865C8D33DC0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4070350" y="2108200"/>
+              <a:ext cx="132664" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22ED7C2-92FB-E20C-D9DC-865C8D33DC0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4070350" y="2108200"/>
+              <a:ext cx="132664" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1005212" cy="327462"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A8AA20-46D3-4A20-1831-DE4760D6A889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="787400"/>
+              <a:ext cx="1005212" cy="327462"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:m>
+                        <m:mPr>
+                          <m:mcs>
+                            <m:mc>
+                              <m:mcPr>
+                                <m:count m:val="2"/>
+                                <m:mcJc m:val="center"/>
+                              </m:mcPr>
+                            </m:mc>
+                          </m:mcs>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:mPr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>64</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>64</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                      </m:m>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A8AA20-46D3-4A20-1831-DE4760D6A889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="787400"/>
+              <a:ext cx="1005212" cy="327462"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3×3,&amp;64@3×3,&amp;64)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090427" cy="327462"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F6EE14-D31E-8A4E-8C8C-7524739D6608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="1536700"/>
+              <a:ext cx="1090427" cy="327462"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:m>
+                        <m:mPr>
+                          <m:mcs>
+                            <m:mc>
+                              <m:mcPr>
+                                <m:count m:val="2"/>
+                                <m:mcJc m:val="center"/>
+                              </m:mcPr>
+                            </m:mc>
+                          </m:mcs>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:mPr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>128</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>128</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                      </m:m>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F6EE14-D31E-8A4E-8C8C-7524739D6608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="1536700"/>
+              <a:ext cx="1090427" cy="327462"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3×3,&amp;128@3×3,&amp;128)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1094530" cy="331245"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547F8E1F-FC2C-9848-AE50-7758DD55A629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="2413000"/>
+              <a:ext cx="1094530" cy="331245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:m>
+                        <m:mPr>
+                          <m:mcs>
+                            <m:mc>
+                              <m:mcPr>
+                                <m:count m:val="2"/>
+                                <m:mcJc m:val="center"/>
+                              </m:mcPr>
+                            </m:mc>
+                          </m:mcs>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:mPr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>256</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>256</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                      </m:m>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547F8E1F-FC2C-9848-AE50-7758DD55A629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="2413000"/>
+              <a:ext cx="1094530" cy="331245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3×3,&amp;256@3×3,&amp;256)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1094530" cy="331245"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1386A7D2-F1DC-FC44-9E44-FBA298B0FB2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="3149600"/>
+              <a:ext cx="1094530" cy="331245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:m>
+                        <m:mPr>
+                          <m:mcs>
+                            <m:mc>
+                              <m:mcPr>
+                                <m:count m:val="2"/>
+                                <m:mcJc m:val="center"/>
+                              </m:mcPr>
+                            </m:mc>
+                          </m:mcs>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:mPr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>512</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                        <m:mr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3×3,</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>512</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:mr>
+                      </m:m>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1386A7D2-F1DC-FC44-9E44-FBA298B0FB2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="3149600"/>
+              <a:ext cx="1094530" cy="331245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3×3,&amp;512@3×3,&amp;512)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="A22:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -658,27 +2011,27 @@
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
+      <c r="A2" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>0.98399999999999999</v>
@@ -696,9 +2049,9 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
         <v>0.55000000000000004</v>
@@ -716,9 +2069,9 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6">
         <v>0.83299999999999996</v>
@@ -736,12 +2089,12 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6">
         <v>0.83099999999999996</v>
@@ -750,14 +2103,14 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>0.71499999999999997</v>
@@ -776,22 +2129,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>0.71</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>0.9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
@@ -799,11 +2152,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
+      <c r="A8" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>0.998</v>
@@ -821,9 +2174,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>0.97599999999999998</v>
@@ -841,9 +2194,9 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6">
         <v>0.95499999999999996</v>
@@ -861,9 +2214,9 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6">
         <v>0.97299999999999998</v>
@@ -881,9 +2234,9 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6">
         <v>0.86299999999999999</v>
@@ -901,9 +2254,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6">
         <v>7.0000000000000007E-2</v>
@@ -921,9 +2274,9 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6">
         <v>0.68899999999999995</v>
@@ -941,11 +2294,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
+      <c r="A15" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6">
         <v>0.98399999999999999</v>
@@ -963,9 +2316,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
         <v>0.98599999999999999</v>
@@ -983,23 +2336,23 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
+      <c r="A17" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7">
         <v>0.91200000000000003</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G17" s="9">
         <f>AVERAGE(C17:E17)</f>
@@ -1007,9 +2360,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4">
         <v>0.99199999999999999</v>
@@ -1027,9 +2380,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4">
         <v>0.998</v>
@@ -1046,30 +2399,48 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G20" s="10">
+        <f>AVERAGE(C20:E20)</f>
+        <v>0.95733333333333326</v>
+      </c>
+    </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>0.91100000000000003</v>
       </c>
       <c r="E23" s="7">
@@ -1077,14 +2448,14 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <v>0.84399999999999997</v>
       </c>
       <c r="E24" s="7">
@@ -1092,14 +2463,14 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>0.88200000000000001</v>
       </c>
       <c r="E25" s="7">
@@ -1107,14 +2478,14 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="6">
         <v>0.86799999999999999</v>
       </c>
       <c r="E26" s="7">
@@ -1122,33 +2493,33 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="A27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="6">
         <v>0.71</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>10</v>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="A28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6">
         <v>0.998</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="6">
         <v>0.91500000000000004</v>
       </c>
       <c r="E28" s="7">
@@ -1156,14 +2527,14 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="A29" s="20"/>
+      <c r="B29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="6">
         <v>0.629</v>
       </c>
       <c r="E29" s="7">
@@ -1171,16 +2542,16 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="A30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="6">
         <v>0.90900000000000003</v>
       </c>
       <c r="E30" s="7">
@@ -1188,14 +2559,14 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="A31" s="20"/>
+      <c r="B31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="6">
         <v>0.91300000000000003</v>
       </c>
       <c r="E31" s="7">
@@ -1203,24 +2574,490 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="A32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6">
         <v>0.998</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="6">
         <v>0.92800000000000005</v>
       </c>
       <c r="E32" s="7">
         <v>0.94899999999999995</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="C33" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="21"/>
+      <c r="B41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="21"/>
+      <c r="B42" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0.998</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="21"/>
+      <c r="B48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0.877</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="21"/>
+      <c r="B49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="23">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="21"/>
+      <c r="B50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="21"/>
+      <c r="B51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="21"/>
+      <c r="B52" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D52" s="23">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="21"/>
+      <c r="B53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0.629</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="21"/>
+      <c r="B54" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D55" s="23">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="21"/>
+      <c r="B56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="23">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D56" s="23">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0.998</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21"/>
+      <c r="B62" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21"/>
+      <c r="B63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="23">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D63" s="23">
+        <v>0.874</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21"/>
+      <c r="B64" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="23">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D64" s="23">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21"/>
+      <c r="B65" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D65" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="21"/>
+      <c r="B66" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="23">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21"/>
+      <c r="B67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="23">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="21"/>
+      <c r="B68" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0.871</v>
+      </c>
+      <c r="E68" s="15">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="23">
+        <v>0.996</v>
+      </c>
+      <c r="D69" s="23">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E69" s="19">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:A6"/>
@@ -1231,5 +3068,206 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58570DC-9849-9E44-A564-513050B2792C}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="69" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="58" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="64" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FEE69-6AFA-E64B-9C63-BFAAA10E422A}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>12000</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>1344</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2601</v>
+      </c>
+      <c r="C4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>24000</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>5502</v>
+      </c>
+      <c r="C6">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>16000</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAF987-AB22-BD4F-BE3F-7EF3642F3700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C05459-7287-4E47-8FC0-9E33145F7BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3660" windowWidth="30240" windowHeight="17780" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="4220" yWindow="3620" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
   <si>
     <t>子空间（PCA主成分分析）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,6 +316,138 @@
   </si>
   <si>
     <t>ResNet+PCA+LDA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征归一化后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cca +svm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompCode+svm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA+SVM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归一化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分数级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>决策级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeanStd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet+PCA+LDA</t>
+  </si>
+  <si>
+    <t>ResNet+PCA+LDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet+PCA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet+LDA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA+LDA+CompCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet+PCA+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca(ResNet+PCA)+LDA+CompCode</t>
+  </si>
+  <si>
+    <t>余弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca+svm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compcde+svm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +488,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -439,6 +585,363 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -448,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,19 +1012,157 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +1170,113 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1991,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2027,7 +2774,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2040,16 +2787,16 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="E2" s="5">
-        <v>0.93899999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9">
         <f>AVERAGE(C2:E2)</f>
-        <v>0.94466666666666665</v>
+        <v>0.92833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2816,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
@@ -2089,7 +2836,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
@@ -2108,7 +2855,7 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2899,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2174,7 +2921,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2941,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
@@ -2214,7 +2961,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2981,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +3001,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
@@ -2274,7 +3021,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
@@ -2294,7 +3041,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2316,7 +3063,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
@@ -2336,7 +3083,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2360,7 +3107,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
         <v>62</v>
       </c>
@@ -2380,7 +3127,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +3178,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2448,7 +3195,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +3210,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
@@ -2478,7 +3225,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
@@ -2510,7 +3257,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2527,7 +3274,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +3289,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2559,7 +3306,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>54</v>
       </c>
@@ -2639,7 +3386,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -2656,7 +3403,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="11" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +3418,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="11" t="s">
         <v>39</v>
       </c>
@@ -2686,7 +3433,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
@@ -2740,16 +3487,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="14">
         <v>0.998</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="14">
         <v>0.91500000000000004</v>
       </c>
       <c r="E47" s="15">
@@ -2757,14 +3504,14 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="21"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="14">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="14">
         <v>0.877</v>
       </c>
       <c r="E48" s="15">
@@ -2772,14 +3519,14 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="21"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="14">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="14">
         <v>0.84699999999999998</v>
       </c>
       <c r="E49" s="15">
@@ -2787,14 +3534,14 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="21"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="14">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="14">
         <v>0.91</v>
       </c>
       <c r="E50" s="15">
@@ -2802,14 +3549,14 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="21"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="14">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="14">
         <v>0.84699999999999998</v>
       </c>
       <c r="E51" s="15">
@@ -2817,14 +3564,14 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="21"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="14">
         <v>0.85699999999999998</v>
       </c>
       <c r="E52" s="15">
@@ -2832,14 +3579,14 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="21"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="14">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="14">
         <v>0.629</v>
       </c>
       <c r="E53" s="15">
@@ -2847,14 +3594,14 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="21"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="14">
         <v>0.96</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="14">
         <v>0.86099999999999999</v>
       </c>
       <c r="E54" s="15">
@@ -2862,34 +3609,34 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="14">
         <v>0.90900000000000003</v>
       </c>
       <c r="E55" s="15">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="20">
         <v>0.94400000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="21"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="14">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="14">
         <v>0.91300000000000003</v>
       </c>
       <c r="E56" s="15">
@@ -2903,158 +3650,367 @@
       <c r="B57" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="14">
         <v>0.998</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="14">
         <v>0.92500000000000004</v>
       </c>
       <c r="E57" s="19">
         <v>0.94899999999999995</v>
       </c>
     </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0.998</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.877</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="25"/>
+      <c r="B62" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="25"/>
+      <c r="B63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="25"/>
+      <c r="B64" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="25"/>
+      <c r="B65" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="25"/>
+      <c r="B66" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="14">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.629</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="25"/>
+      <c r="B67" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="14">
+        <v>0.998</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E68" s="19">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C70" s="14">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D70" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E70" s="15">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="21"/>
-      <c r="B62" s="11" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="25"/>
+      <c r="B71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C71" s="14">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D71" s="14">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E71" s="15">
         <v>0.875</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="21"/>
-      <c r="B63" s="11" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="25"/>
+      <c r="B72" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C72" s="14">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D72" s="14">
         <v>0.874</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E72" s="15">
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
-      <c r="B64" s="11" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="25"/>
+      <c r="B73" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C73" s="14">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D73" s="14">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E73" s="15">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="11" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="25"/>
+      <c r="B74" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C74" s="14">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D74" s="14">
         <v>0.83099999999999996</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E74" s="15">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="21"/>
-      <c r="B66" s="11" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="25"/>
+      <c r="B75" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C75" s="14">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D66" s="23">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="E66" s="15">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="21"/>
-      <c r="B67" s="11" t="s">
+      <c r="D75" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="25"/>
+      <c r="B76" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C76" s="14">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D76" s="14">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E76" s="15">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="21"/>
-      <c r="B68" s="11" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="25"/>
+      <c r="B77" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C77" s="14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D77" s="14">
         <v>0.871</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E77" s="15">
         <v>0.871</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="11" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B78" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C78" s="14">
         <v>0.996</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D78" s="14">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E78" s="19">
         <v>0.94899999999999995</v>
       </c>
     </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A61:A68"/>
+  <mergeCells count="14">
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A59:E59"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A55:A56"/>
@@ -3073,6 +4029,883 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D265F588-EE28-834F-B7A4-9F223E464BDD}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="41.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="17"/>
+    <col min="7" max="7" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G2" s="17">
+        <f>AVERAGE(D2:F2)</f>
+        <v>0.8886666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.999</v>
+      </c>
+      <c r="E3" s="64">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G3" s="67">
+        <f t="shared" ref="G3:G29" si="0">AVERAGE(D3:F3)</f>
+        <v>0.95633333333333326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="43"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.998</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="0"/>
+        <v>0.95033333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.93699999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="43"/>
+      <c r="B6" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81333333333333346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="43"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="43"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.84500000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="43"/>
+      <c r="B10" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="43"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.91166666666666674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="43"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="60">
+        <v>1</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G13" s="67">
+        <f t="shared" si="0"/>
+        <v>0.96033333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43"/>
+      <c r="B14" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.86733333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.85766666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.82066666666666677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="43"/>
+      <c r="B18" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.86733333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="G19" s="17">
+        <f>AVERAGE(D20:F20)</f>
+        <v>0.84666666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="43"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.749</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G20" s="17">
+        <f>AVERAGE(D20:F20)</f>
+        <v>0.84666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.93</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.93633333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="62">
+        <v>0.998</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F22" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="0"/>
+        <v>0.95866666666666678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="43"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.75600000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="43"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.997</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.95566666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="60">
+        <v>0.998</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0.93</v>
+      </c>
+      <c r="F25" s="65">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G25" s="67">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.998</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F26" s="33">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.998</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.94300000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.997</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.94200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.88933333333333342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="64">
+        <v>0.999</v>
+      </c>
+      <c r="F33" s="64">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G33" s="64">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="25"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0.998</v>
+      </c>
+      <c r="F34" s="64">
+        <v>0.92</v>
+      </c>
+      <c r="G34" s="64">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="64">
+        <v>1</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G35" s="64">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="25"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0.999</v>
+      </c>
+      <c r="F36" s="64">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G36" s="64">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F37" s="64">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G37" s="64">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="25"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="64">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F38" s="64">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G38" s="64">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0.998</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="25"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="64">
+        <v>0.996</v>
+      </c>
+      <c r="F40" s="64">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="25"/>
+      <c r="C41" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="64">
+        <v>0.998</v>
+      </c>
+      <c r="F41" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="25"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="64">
+        <v>0.996</v>
+      </c>
+      <c r="F42" s="64">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="70"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="70"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D33:G39 D41:G42 E40:G40">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G19" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58570DC-9849-9E44-A564-513050B2792C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3152,11 +4985,11 @@
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3168,12 +5001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FEE69-6AFA-E64B-9C63-BFAAA10E422A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D0FAA-1DD4-3248-B05D-E33312303909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FEDCC-608A-8046-A717-9B975D7E1AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="5820" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="9860" yWindow="2200" windowWidth="30240" windowHeight="17780" activeTab="2" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
   <si>
     <t>子空间（PCA主成分分析）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>7×7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>average pool, 128-d fc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -538,7 +534,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>混合融合方法</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1278,9 +1274,6 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,16 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,6 +1302,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1865,37 +1861,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1915,6 +1881,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tongji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
@@ -1930,130 +1907,124 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$B$19</c:f>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>特征类型</c:v>
+                  <c:v>ResNet</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ResNet</c:v>
+                  <c:v>ResNet+PCA</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ResNet+PCA</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>ResNet+PCA+LDA</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>ResNet+PCA+LDA+CompCode</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>ResNet+LDA+CompCode</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>ResNet+LDA+CompCode</c:v>
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>混合融合方法</c:v>
+                  <c:v>多特征混合融合</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$1:$C$19</c:f>
+              <c:f>Sheet5!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="@">
-                  <c:v>0</c:v>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.98399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.998</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.82299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0.997</c:v>
                 </c:pt>
               </c:numCache>
@@ -2068,9 +2039,182 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CASIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>ResNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>多特征混合融合</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57E8-304C-8980-32B7EC02A6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IITD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
@@ -2083,280 +2227,124 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$B$19</c:f>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>特征类型</c:v>
+                  <c:v>ResNet</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ResNet</c:v>
+                  <c:v>ResNet+PCA</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ResNet+PCA</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>ResNet+PCA+LDA</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>ResNet+PCA+LDA+CompCode</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>ResNet+LDA+CompCode</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>ResNet+LDA+CompCode</c:v>
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>混合融合方法</c:v>
+                  <c:v>多特征混合融合</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$D$1:$D$19</c:f>
+              <c:f>Sheet5!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="@">
-                  <c:v>0</c:v>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>0.82099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.88600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.877</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84699999999999998</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84699999999999998</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92800000000000005</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.89400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91300000000000003</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-57E8-304C-8980-32B7EC02A6C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$B$1:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>特征类型</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ResNet</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>混合融合方法</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$E$1:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.92700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -2858,7 +2846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>混合融合方法</c:v>
+                  <c:v>多特征混合融合</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13873,13 +13861,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>527756</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>149577</xdr:rowOff>
+      <xdr:rowOff>149576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>183447</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>98777</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16564,11 +16552,11 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <v>0.98399999999999999</v>
@@ -16586,7 +16574,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16606,9 +16594,9 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6">
         <v>0.83299999999999996</v>
@@ -16626,9 +16614,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -16645,7 +16633,7 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -16691,7 +16679,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6">
         <v>0.78600000000000003</v>
@@ -16706,11 +16694,11 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4">
         <v>0.998</v>
@@ -16728,7 +16716,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -16748,9 +16736,9 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6">
         <v>0.95499999999999996</v>
@@ -16768,9 +16756,9 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6">
         <v>0.97299999999999998</v>
@@ -16788,9 +16776,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="73"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6">
         <v>0.86299999999999999</v>
@@ -16808,9 +16796,9 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="73"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6">
         <v>7.0000000000000007E-2</v>
@@ -16828,9 +16816,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="73"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6">
         <v>0.68899999999999995</v>
@@ -16848,11 +16836,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="76" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6">
         <v>0.98399999999999999</v>
@@ -16870,9 +16858,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4">
         <v>0.98599999999999999</v>
@@ -16890,11 +16878,11 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -16914,9 +16902,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="73"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4">
         <v>0.99199999999999999</v>
@@ -16934,9 +16922,9 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4">
         <v>0.998</v>
@@ -16955,7 +16943,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2">
         <v>0.998</v>
@@ -16985,11 +16973,11 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6">
         <v>0.98399999999999999</v>
@@ -17002,7 +16990,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
@@ -17017,9 +17005,9 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6">
         <v>0.83299999999999996</v>
@@ -17032,9 +17020,9 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6">
         <v>0.71499999999999997</v>
@@ -17051,7 +17039,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="6">
         <v>0.71</v>
@@ -17064,11 +17052,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="76" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6">
         <v>0.998</v>
@@ -17081,9 +17069,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6">
         <v>0.68899999999999995</v>
@@ -17096,11 +17084,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="76" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="6">
         <v>0.98399999999999999</v>
@@ -17113,9 +17101,9 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="73"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6">
         <v>0.98599999999999999</v>
@@ -17180,24 +17168,24 @@
     <row r="40" spans="1:5">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="74" t="s">
-        <v>37</v>
+      <c r="A41" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="14">
         <v>0.98399999999999999</v>
@@ -17210,7 +17198,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="74"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
@@ -17225,9 +17213,9 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="74"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="14">
         <v>0.83299999999999996</v>
@@ -17240,9 +17228,9 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="74"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="14">
         <v>0.71499999999999997</v>
@@ -17264,13 +17252,13 @@
     <row r="46" spans="1:5">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>4</v>
@@ -17278,10 +17266,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="14">
         <v>0.71</v>
@@ -17294,11 +17282,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="74" t="s">
-        <v>44</v>
+      <c r="A48" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="14">
         <v>0.998</v>
@@ -17311,9 +17299,9 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="74"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="14">
         <v>0.97599999999999998</v>
@@ -17326,9 +17314,9 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="74"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="14">
         <v>0.95499999999999996</v>
@@ -17341,9 +17329,9 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="74"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="14">
         <v>0.97299999999999998</v>
@@ -17356,9 +17344,9 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="74"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="14">
         <v>0.86299999999999999</v>
@@ -17371,9 +17359,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="74"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="14">
         <v>0.94399999999999995</v>
@@ -17386,9 +17374,9 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="74"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="14">
         <v>0.68899999999999995</v>
@@ -17401,9 +17389,9 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="74"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="14">
         <v>0.96</v>
@@ -17416,11 +17404,11 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="74" t="s">
-        <v>64</v>
+      <c r="A56" s="73" t="s">
+        <v>63</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="14">
         <v>0.98399999999999999</v>
@@ -17436,9 +17424,9 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="74"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="14">
         <v>0.98599999999999999</v>
@@ -17452,10 +17440,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C58" s="14">
         <v>0.998</v>
@@ -17475,20 +17463,20 @@
       <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
+      <c r="A60" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="74" t="s">
-        <v>44</v>
+      <c r="A61" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="14">
         <v>0.998</v>
@@ -17501,9 +17489,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="74"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="14">
         <v>0.97599999999999998</v>
@@ -17516,9 +17504,9 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="74"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="14">
         <v>0.95499999999999996</v>
@@ -17531,9 +17519,9 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="74"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="14">
         <v>0.97299999999999998</v>
@@ -17546,9 +17534,9 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="74"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="14">
         <v>0.86299999999999999</v>
@@ -17561,9 +17549,9 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="74"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="14">
         <v>0.94399999999999995</v>
@@ -17576,9 +17564,9 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="74"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="14">
         <v>0.68899999999999995</v>
@@ -17591,9 +17579,9 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="74"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="14">
         <v>0.96</v>
@@ -17607,10 +17595,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C69" s="14">
         <v>0.998</v>
@@ -17623,20 +17611,20 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="75"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
+      <c r="A70" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="74" t="s">
-        <v>44</v>
+      <c r="A71" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="14">
         <v>0.98799999999999999</v>
@@ -17649,9 +17637,9 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="74"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="14">
         <v>0.96899999999999997</v>
@@ -17664,9 +17652,9 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="74"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="14">
         <v>0.92600000000000005</v>
@@ -17679,9 +17667,9 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="74"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="14">
         <v>0.97799999999999998</v>
@@ -17694,9 +17682,9 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="74"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="14">
         <v>0.86599999999999999</v>
@@ -17709,9 +17697,9 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="74"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="14">
         <v>0.90500000000000003</v>
@@ -17724,9 +17712,9 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="74"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="14">
         <v>0.97799999999999998</v>
@@ -17739,9 +17727,9 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="74"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="14">
         <v>0.94599999999999995</v>
@@ -17755,10 +17743,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C79" s="14">
         <v>0.996</v>
@@ -17772,7 +17760,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2">
         <v>0.98499999999999999</v>
@@ -17786,7 +17774,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2">
         <v>0.99299999999999999</v>
@@ -17800,7 +17788,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2">
         <v>0.99299999999999999</v>
@@ -17814,6 +17802,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A71:A78"/>
     <mergeCell ref="A61:A68"/>
     <mergeCell ref="A70:E70"/>
@@ -17821,13 +17816,6 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17838,7 +17826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D265F588-EE28-834F-B7A4-9F223E464BDD}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
@@ -17856,30 +17844,30 @@
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>88</v>
+      <c r="A2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="27">
         <v>0.96099999999999997</v>
@@ -17908,10 +17896,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="82"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="41">
         <v>0.999</v>
@@ -17940,10 +17928,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="82"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="14">
         <v>0.998</v>
@@ -17972,10 +17960,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" thickBot="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="30">
         <v>0.94699999999999995</v>
@@ -18004,12 +17992,12 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="82"/>
-      <c r="B6" s="77" t="s">
-        <v>90</v>
+      <c r="A6" s="78"/>
+      <c r="B6" s="83" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="27">
         <v>0.67400000000000004</v>
@@ -18038,10 +18026,10 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="82"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="14">
         <v>0.88800000000000001</v>
@@ -18070,10 +18058,10 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="82"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="14">
         <v>0.74399999999999999</v>
@@ -18102,10 +18090,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="30">
         <v>0.89900000000000002</v>
@@ -18134,12 +18122,12 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="82"/>
-      <c r="B10" s="77" t="s">
-        <v>91</v>
+      <c r="A10" s="78"/>
+      <c r="B10" s="83" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="27">
         <v>0.78600000000000003</v>
@@ -18168,10 +18156,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="82"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="14">
         <v>0.88800000000000001</v>
@@ -18200,10 +18188,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="82"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="14">
         <v>0.74399999999999999</v>
@@ -18232,10 +18220,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="45">
         <v>1</v>
@@ -18264,12 +18252,12 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="82"/>
-      <c r="B14" s="81" t="s">
-        <v>93</v>
+      <c r="A14" s="78"/>
+      <c r="B14" s="77" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="27">
         <v>0.78600000000000003</v>
@@ -18298,10 +18286,10 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="14">
         <v>0.76600000000000001</v>
@@ -18330,10 +18318,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="14">
         <v>0.68600000000000005</v>
@@ -18362,10 +18350,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" thickBot="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="26">
         <v>0.82299999999999995</v>
@@ -18394,12 +18382,12 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84" t="s">
-        <v>74</v>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="27">
         <v>0.78600000000000003</v>
@@ -18428,10 +18416,10 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="82"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="14">
         <v>0.89900000000000002</v>
@@ -18460,10 +18448,10 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="14">
         <v>0.749</v>
@@ -18492,10 +18480,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" thickBot="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="30">
         <v>0.94099999999999995</v>
@@ -18524,14 +18512,14 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>66</v>
+      <c r="A22" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="46">
         <v>0.997</v>
@@ -18560,10 +18548,10 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="82"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="14">
         <v>0.67300000000000004</v>
@@ -18592,10 +18580,10 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="82"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="14">
         <v>0.997</v>
@@ -18624,10 +18612,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="45">
         <v>0.997</v>
@@ -18656,14 +18644,14 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>66</v>
+      <c r="A26" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="27">
         <v>0.998</v>
@@ -18692,10 +18680,10 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="14">
         <v>0.998</v>
@@ -18724,10 +18712,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="14">
         <v>0.997</v>
@@ -18756,10 +18744,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" thickBot="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="30">
         <v>0.95199999999999996</v>
@@ -18790,30 +18778,30 @@
     <row r="32" spans="1:11">
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>85</v>
+      <c r="B33" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>84</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="14">
         <v>0.999</v>
@@ -18826,10 +18814,10 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="14">
         <v>0.998</v>
@@ -18842,14 +18830,14 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>89</v>
+      <c r="B35" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="14">
         <v>1</v>
@@ -18862,10 +18850,10 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="14">
         <v>0.999</v>
@@ -18878,14 +18866,14 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="74" t="s">
-        <v>89</v>
+      <c r="B37" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="14">
         <v>0.94099999999999995</v>
@@ -18898,10 +18886,10 @@
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="14">
         <v>0.94299999999999995</v>
@@ -18917,14 +18905,14 @@
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E39" s="14">
         <v>0.998</v>
@@ -18937,10 +18925,10 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="14">
         <v>0.996</v>
@@ -18953,12 +18941,12 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="17" thickBot="1">
-      <c r="B41" s="74"/>
-      <c r="C41" s="74" t="s">
-        <v>89</v>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="45">
         <v>0.997</v>
@@ -18971,10 +18959,10 @@
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="14">
         <v>0.996</v>
@@ -19001,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>4</v>
@@ -19009,7 +18997,7 @@
     </row>
     <row r="47" spans="2:8" ht="17" thickBot="1">
       <c r="C47" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="59">
         <v>0.997</v>
@@ -19023,7 +19011,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="C48" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="61">
         <v>0.999</v>
@@ -19037,7 +19025,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="C49" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="61">
         <v>0.999</v>
@@ -19051,7 +19039,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="C50" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" s="61">
         <v>0.96499999999999997</v>
@@ -19065,27 +19053,27 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="74" t="s">
-        <v>87</v>
+      <c r="B53" s="73" t="s">
+        <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" s="14">
         <v>0.999</v>
@@ -19098,9 +19086,9 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="74"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="14">
         <v>0.998</v>
@@ -19113,11 +19101,11 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="74" t="s">
-        <v>54</v>
+      <c r="B55" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="14">
         <v>1</v>
@@ -19130,9 +19118,9 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="74"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="14">
         <v>0.999</v>
@@ -19145,11 +19133,11 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="74" t="s">
-        <v>94</v>
+      <c r="B57" s="73" t="s">
+        <v>93</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="14">
         <v>0.94099999999999995</v>
@@ -19162,9 +19150,9 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="74"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="14">
         <v>0.94299999999999995</v>
@@ -19177,11 +19165,11 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="17" thickBot="1">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="45">
         <v>0.997</v>
@@ -19194,9 +19182,9 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="74"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="14">
         <v>0.996</v>
@@ -19341,19 +19329,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
@@ -19364,6 +19339,19 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C53:F58 C59:C60 C60:F60">
@@ -19402,8 +19390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58570DC-9849-9E44-A564-513050B2792C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19478,10 +19466,10 @@
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="74"/>
+      <c r="A8" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="73"/>
       <c r="C8" s="87"/>
     </row>
   </sheetData>
@@ -19498,8 +19486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D673F2D-5B36-B445-BBD1-4A44E50B2325}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19513,13 +19501,13 @@
     <row r="1" spans="1:7">
       <c r="A1" s="52"/>
       <c r="B1" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>4</v>
@@ -19529,10 +19517,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="53">
         <v>0.98399999999999999</v>
@@ -19551,10 +19539,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="53">
         <v>0.89700000000000002</v>
@@ -19574,7 +19562,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="88"/>
       <c r="B4" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="53">
         <v>0.96099999999999997</v>
@@ -19594,7 +19582,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="88"/>
       <c r="B5" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="53">
         <v>0.78600000000000003</v>
@@ -19613,10 +19601,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="53">
         <v>0.998</v>
@@ -19635,7 +19623,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="88"/>
       <c r="B7" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="53">
         <v>0.97599999999999998</v>
@@ -19654,7 +19642,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="88"/>
       <c r="B8" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="53">
         <v>0.95499999999999996</v>
@@ -19673,7 +19661,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="88"/>
       <c r="B9" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="53">
         <v>0.97299999999999998</v>
@@ -19692,7 +19680,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="88"/>
       <c r="B10" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="53">
         <v>0.86299999999999999</v>
@@ -19711,7 +19699,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="88"/>
       <c r="B11" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="53">
         <v>0.999</v>
@@ -19730,7 +19718,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="88"/>
       <c r="B12" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="53">
         <v>0.89900000000000002</v>
@@ -19749,7 +19737,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="88"/>
       <c r="B13" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="53">
         <v>1</v>
@@ -19768,7 +19756,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="88"/>
       <c r="B14" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="53">
         <v>0.82299999999999995</v>
@@ -19787,7 +19775,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="88"/>
       <c r="B15" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="53">
         <v>0.94099999999999995</v>
@@ -19805,10 +19793,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="53">
         <v>0.98399999999999999</v>
@@ -19827,7 +19815,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="90"/>
       <c r="B17" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="53">
         <v>0.98599999999999999</v>
@@ -19845,10 +19833,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="53">
         <v>0.998</v>
@@ -19869,7 +19857,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="C19" s="53">
         <v>0.997</v>
@@ -20166,21 +20154,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>12000</v>
@@ -20194,7 +20182,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1344</v>
@@ -20216,7 +20204,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>24000</v>
@@ -20227,7 +20215,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>5502</v>
@@ -20238,7 +20226,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>16000</v>

--- a/准确率.xlsx
+++ b/准确率.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyihang/Desktop/graduation_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FEDCC-608A-8046-A717-9B975D7E1AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C190D4-1AA4-A443-AD6A-BF52760C0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="2200" windowWidth="30240" windowHeight="17780" activeTab="2" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
+    <workbookView xWindow="6400" yWindow="760" windowWidth="30240" windowHeight="17780" activeTab="3" xr2:uid="{915F5A84-6DA3-A747-8EA9-C456DB6CC840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
   <si>
     <t>子空间（PCA主成分分析）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -537,15 +538,135 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8*8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9*9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>Tongji</t>
+  </si>
+  <si>
+    <t>CASIA</t>
+  </si>
+  <si>
+    <t>IITD</t>
+  </si>
+  <si>
+    <t>多特征混合融合</t>
+  </si>
+  <si>
+    <t>KPCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Feature/Baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial Concatenation Fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCA-based Multi-Feature Fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score-Level Fusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weighted Voting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitLength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classifier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosine similarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -619,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -726,21 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -796,21 +902,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -948,28 +1039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1054,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,43 +1205,34 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,28 +1241,22 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1232,10 +1286,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1244,34 +1298,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,43 +1365,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,12 +1407,52 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1407,6 +1526,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1440,49 +1560,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$2:$C$5</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$6:$C$9</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$5</c:f>
+              <c:f>Sheet4!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.96099999999999997</c:v>
+                  <c:v>0.67400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.999</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.998</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94699999999999995</c:v>
+                  <c:v>0.89900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,49 +1631,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$2:$C$5</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$6:$C$9</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$2:$E$5</c:f>
+              <c:f>Sheet4!$E$6:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>0.91100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91600000000000004</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93700000000000006</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,7 +1693,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1596,46 +1702,39 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$2:$C$5</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$6:$C$9</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$2:$F$5</c:f>
+              <c:f>Sheet4!$F$6:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82099999999999995</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93700000000000006</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.92700000000000005</c:v>
@@ -1807,14 +1906,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1848,706 +1941,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2303039446934999E-2"/>
-          <c:y val="0.15640710175651121"/>
-          <c:w val="0.94769696055306496"/>
-          <c:h val="0.57781893549364027"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tongji</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-                <a:alpha val="84074"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>ResNet</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>多特征混合融合</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$2:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57E8-304C-8980-32B7EC02A6C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CASIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>ResNet</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>多特征混合融合</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$D$2:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.91300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.91300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-57E8-304C-8980-32B7EC02A6C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IITD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>ResNet</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ResNet+PCA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CompCode+PCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ResNet+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ResNet+LDA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CompCode+LDA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ResNet+PCA+LDA</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet+PCA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ResNet+pca+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ResNet+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>多特征混合融合</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$E$2:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-57E8-304C-8980-32B7EC02A6C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="48603151"/>
-        <c:axId val="389010351"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="48603151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="389010351"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="389010351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.75"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48603151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2846,7 +2239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>多特征混合融合</c:v>
+                  <c:v>Ours</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3169,40 +2562,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$6:$C$9</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$10:$C$13</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$6:$D$9</c:f>
+              <c:f>Sheet4!$D$10:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.67400000000000004</c:v>
+                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88800000000000001</c:v>
@@ -3211,7 +2597,7 @@
                   <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89900000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,49 +2633,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$6:$C$9</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$10:$C$13</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$6:$E$9</c:f>
+              <c:f>Sheet4!$E$10:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.84899999999999998</c:v>
+                  <c:v>0.89500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.91300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86399999999999999</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92800000000000005</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,7 +2695,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3325,49 +2704,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$6:$C$9</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$10:$C$13</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+PCA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$6:$F$9</c:f>
+              <c:f>Sheet4!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.91700000000000004</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,35 +2989,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$10:$C$13</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$14:$C$17</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$10:$D$13</c:f>
+              <c:f>Sheet4!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3653,13 +3018,13 @@
                   <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88800000000000001</c:v>
+                  <c:v>0.76600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74399999999999999</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.82299999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,49 +3060,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$10:$C$13</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$14:$C$17</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$10:$E$13</c:f>
+              <c:f>Sheet4!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89500000000000002</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91300000000000003</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86299999999999999</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.91100000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,7 +3122,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3773,35 +3131,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$10:$C$13</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$14:$C$17</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$10:$F$13</c:f>
+              <c:f>Sheet4!$F$14:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3809,13 +3160,13 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.92400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93700000000000006</c:v>
+                  <c:v>0.89400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,35 +3416,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$14:$C$17</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$18:$C$21</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>PCA+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$14:$D$17</c:f>
+              <c:f>Sheet4!$D$18:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4101,13 +3445,13 @@
                   <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76600000000000001</c:v>
+                  <c:v>0.89900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68600000000000005</c:v>
+                  <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82299999999999995</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,35 +3487,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$14:$C$17</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$18:$C$21</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>PCA+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$14:$E$17</c:f>
+              <c:f>Sheet4!$E$18:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4179,13 +3516,13 @@
                   <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +3549,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4221,49 +3558,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$14:$C$17</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet4!$C$18:$C$21</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>无</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>PCA+LDA+CompCode</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MeanStd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UnitLength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$14:$F$17</c:f>
+              <c:f>Sheet4!$E$18:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89400000000000002</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,7 +3823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
+              <c:f>Sheet4!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4514,26 +3844,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$18:$C$21</c:f>
+              <c:f>Sheet4!$B$53:$C$54</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>无</c:v>
+                    <c:v>余弦相似度</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4541,21 +3865,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$18:$D$21</c:f>
+              <c:f>Sheet4!$D$53:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.78600000000000003</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94099999999999995</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,7 +3889,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$E$1</c:f>
+              <c:f>Sheet4!$E$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4592,26 +3910,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$18:$C$21</c:f>
+              <c:f>Sheet4!$B$53:$C$54</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>无</c:v>
+                    <c:v>余弦相似度</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4619,21 +3931,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$18:$E$21</c:f>
+              <c:f>Sheet4!$E$53:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93799999999999994</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +3955,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$F$1</c:f>
+              <c:f>Sheet4!$F$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4670,26 +3976,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$18:$C$21</c:f>
+              <c:f>Sheet4!$B$53:$C$54</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>无</c:v>
+                    <c:v>余弦相似度</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>MeanStd</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>MinMax</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>unit_length</c:v>
+                    <c:v>SVM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4697,21 +3997,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$18:$E$21</c:f>
+              <c:f>Sheet4!$F$53:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93799999999999994</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,7 +4080,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.5"/>
+          <c:min val="0.85"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4962,7 +4256,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$53:$C$54</c:f>
+              <c:f>Sheet4!$B$55:$C$56</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -4975,7 +4269,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
+                    <c:v>ResNet+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4983,15 +4277,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$53:$D$54</c:f>
+              <c:f>Sheet4!$D$55:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,7 +4322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$53:$C$54</c:f>
+              <c:f>Sheet4!$B$55:$C$56</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5041,7 +4335,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
+                    <c:v>ResNet+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5049,15 +4343,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$53:$E$54</c:f>
+              <c:f>Sheet4!$E$55:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91800000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,7 +4388,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$53:$C$54</c:f>
+              <c:f>Sheet4!$B$55:$C$56</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5107,7 +4401,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA</c:v>
+                    <c:v>ResNet+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5115,15 +4409,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$53:$F$54</c:f>
+              <c:f>Sheet4!$F$55:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5374,7 +4668,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$55:$C$56</c:f>
+              <c:f>Sheet4!$B$57:$C$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5387,7 +4681,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5395,15 +4689,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$55:$D$56</c:f>
+              <c:f>Sheet4!$D$57:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.999</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,7 +4734,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$55:$C$56</c:f>
+              <c:f>Sheet4!$B$57:$C$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5453,7 +4747,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5461,15 +4755,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$55:$E$56</c:f>
+              <c:f>Sheet4!$E$57:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,7 +4800,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$55:$C$56</c:f>
+              <c:f>Sheet4!$B$57:$C$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5519,7 +4813,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+LDA+CompCode</c:v>
+                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5527,15 +4821,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$55:$F$56</c:f>
+              <c:f>Sheet4!$F$57:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93700000000000006</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5080,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$57:$C$58</c:f>
+              <c:f>Sheet4!$B$59:$C$60</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5799,7 +5093,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>多特征混合融合</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5807,15 +5101,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$57:$D$58</c:f>
+              <c:f>Sheet4!$D$59:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.94099999999999995</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94299999999999995</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5852,7 +5146,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$57:$C$58</c:f>
+              <c:f>Sheet4!$B$59:$C$60</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5865,7 +5159,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>多特征混合融合</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5873,15 +5167,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$57:$E$58</c:f>
+              <c:f>Sheet4!$E$59:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93799999999999994</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90800000000000003</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5918,7 +5212,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$57:$C$58</c:f>
+              <c:f>Sheet4!$B$59:$C$60</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -5931,7 +5225,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                    <c:v>多特征混合融合</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5939,15 +5233,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$57:$F$58</c:f>
+              <c:f>Sheet4!$F$59:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90400000000000003</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6163,11 +5457,20 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2303039446934999E-2"/>
+          <c:y val="0.15640710175651121"/>
+          <c:w val="0.94769696055306496"/>
+          <c:h val="0.57781893549364027"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6177,7 +5480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$52</c:f>
+              <c:f>Sheet5!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6197,44 +5500,133 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$59:$C$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>余弦相似度</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>SVM</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>多特征混合融合</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>ResNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$59:$D$60</c:f>
+              <c:f>Sheet5!$C$2:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E75A-5742-AD93-48FFB7DA339B}"/>
+              <c16:uniqueId val="{00000000-57E8-304C-8980-32B7EC02A6C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6243,7 +5635,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$E$52</c:f>
+              <c:f>Sheet5!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6263,44 +5655,133 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$59:$C$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>余弦相似度</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>SVM</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>多特征混合融合</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>ResNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$59:$E$60</c:f>
+              <c:f>Sheet5!$D$2:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.94199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E75A-5742-AD93-48FFB7DA339B}"/>
+              <c16:uniqueId val="{00000001-57E8-304C-8980-32B7EC02A6C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6309,7 +5790,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$F$52</c:f>
+              <c:f>Sheet5!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6329,44 +5810,133 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$B$59:$C$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>余弦相似度</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>SVM</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>多特征混合融合</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet5!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>ResNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ResNet+PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CompCode+PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ResNet+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ResNet+LDA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CompCode+LDA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ResNet+PCA+LDA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ResNet+PCA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ResNet+PCA+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ResNet+pca+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ResNet+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cca(ResNet+PCA)+LDA+CompCode</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$59:$F$60</c:f>
+              <c:f>Sheet5!$E$2:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E75A-5742-AD93-48FFB7DA339B}"/>
+              <c16:uniqueId val="{00000002-57E8-304C-8980-32B7EC02A6C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6379,12 +5949,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2023366112"/>
-        <c:axId val="2023342544"/>
+        <c:axId val="48603151"/>
+        <c:axId val="389010351"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2023366112"/>
+        <c:axId val="48603151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6397,7 +5966,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -6409,10 +5983,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
@@ -6422,7 +5993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023342544"/>
+        <c:crossAx val="389010351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6430,11 +6001,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2023342544"/>
+        <c:axId val="389010351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.85"/>
+          <c:min val="0.75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6452,7 +6023,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6470,10 +6041,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
@@ -6483,7 +6051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2023366112"/>
+        <c:crossAx val="48603151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6512,10 +6080,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
@@ -6529,7 +6094,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6600,46 +6164,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7479,7 +7003,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7981,8 +7505,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8484,7 +8008,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8987,7 +8511,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9490,7 +9014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9993,7 +9517,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10496,7 +10020,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10999,7 +10523,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11502,7 +11026,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12005,559 +11529,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78C0F70-2112-708B-7E55-5AA70A76413C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12576,7 +11561,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12612,7 +11597,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12648,7 +11633,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12684,7 +11669,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12720,7 +11705,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12756,7 +11741,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12792,7 +11777,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12809,7 +11794,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>227330</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12828,7 +11813,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16516,10 +15501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D2FF7-164D-0442-83F2-983B381CF862}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16589,1132 +15574,1132 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G19" si="0">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="G3:G22" si="0">AVERAGE(C3:E3)</f>
         <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="76"/>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6">
-        <v>0.83299999999999996</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D4" s="6">
-        <v>0.88200000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E4" s="7">
-        <v>0.88200000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="9">
-        <f>AVERAGE(C4:E4)</f>
-        <v>0.8656666666666667</v>
-      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="76"/>
       <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.83299999999999996</v>
       </c>
       <c r="D5" s="6">
-        <v>0.83099999999999996</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E5" s="7">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
+        <f>AVERAGE(C5:E5)</f>
+        <v>0.8656666666666667</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="76"/>
       <c r="B6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="76"/>
+      <c r="B7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="76"/>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="76"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C9" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="6">
         <v>0.86799999999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E9" s="7">
         <v>0.92</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.83433333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.80499999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.93799999999999994</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0.95033333333333336</v>
+        <v>0.83433333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76"/>
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.877</v>
+        <v>0.71</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="7">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>0.91299999999999992</v>
+        <v>0.80499999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C11" s="6">
-        <v>0.95499999999999996</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D11" s="6">
-        <v>0.84699999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="E11" s="7">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.874</v>
-      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76"/>
+      <c r="A12" s="76" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.91</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.91500000000000004</v>
       </c>
       <c r="E12" s="7">
-        <v>0.90400000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0.92899999999999994</v>
+        <v>0.95033333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="76"/>
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6">
-        <v>0.86299999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D13" s="6">
-        <v>0.84699999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="E13" s="7">
-        <v>0.86399999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>0.85799999999999998</v>
+        <v>0.91299999999999992</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="76"/>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D14" s="6">
-        <v>0.85699999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E14" s="7">
-        <v>0.86799999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>0.59833333333333327</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="76"/>
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6">
-        <v>0.68899999999999995</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D15" s="6">
-        <v>0.629</v>
+        <v>0.91</v>
       </c>
       <c r="E15" s="7">
-        <v>0.84599999999999997</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>0.72133333333333338</v>
+        <v>0.92899999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="76" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="76"/>
       <c r="B16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6">
-        <v>0.98399999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D16" s="6">
-        <v>0.90900000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E16" s="7">
-        <v>0.93799999999999994</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>0.94366666666666665</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="76"/>
       <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.91300000000000003</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.85699999999999998</v>
       </c>
       <c r="E17" s="7">
-        <v>0.93400000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>0.94433333333333336</v>
+        <v>0.59833333333333327</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="76" t="s">
-        <v>11</v>
-      </c>
+      <c r="A18" s="76"/>
       <c r="B18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.629</v>
       </c>
       <c r="E18" s="7">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="9">
-        <f>AVERAGE(C18:E18)</f>
-        <v>0.91200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.72133333333333338</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="76"/>
+      <c r="A19" s="76" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.91400000000000003</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.90900000000000003</v>
       </c>
       <c r="E19" s="7">
-        <v>0.91900000000000004</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f t="shared" si="0"/>
-        <v>0.94166666666666676</v>
+        <v>0.94366666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="76"/>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4">
-        <v>0.998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.94899999999999995</v>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.93400000000000005</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9">
-        <f>AVERAGE(C20:E20)</f>
+        <f t="shared" si="0"/>
+        <v>0.94433333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9">
+        <f>AVERAGE(C21:E21)</f>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="76"/>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="76"/>
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9">
+        <f>AVERAGE(C23:E23)</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="8" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C24" s="2">
         <v>0.998</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D24" s="2">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E24" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="G21" s="10">
-        <f>AVERAGE(C21:E21)</f>
+      <c r="G24" s="10">
+        <f>AVERAGE(C24:E24)</f>
         <v>0.95733333333333326</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="76" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C27" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D27" s="6">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E27" s="7">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="76"/>
-      <c r="B25" s="8" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="76"/>
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C28" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D28" s="6">
         <v>0.84399999999999997</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E28" s="7">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="76"/>
-      <c r="B26" s="8" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="76"/>
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C29" s="6">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D29" s="6">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E29" s="7">
         <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="76"/>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.998</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="76"/>
       <c r="B30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="76"/>
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C33" s="6">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D33" s="6">
         <v>0.629</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E33" s="7">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="76" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C34" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D34" s="6">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E34" s="7">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="76"/>
-      <c r="B32" s="8" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="76"/>
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C35" s="6">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D35" s="6">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E35" s="7">
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C36" s="6">
         <v>0.998</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D36" s="6">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E36" s="7">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="C34" s="2">
+    <row r="37" spans="1:5">
+      <c r="C37" s="2">
         <v>0.997</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D37" s="2">
         <v>0.92300000000000004</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E37" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C40" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="73" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C44" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D44" s="14">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E44" s="15">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="73"/>
-      <c r="B42" s="11" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="77"/>
+      <c r="B45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C45" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D45" s="14">
         <v>0.84399999999999997</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E45" s="15">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="73"/>
-      <c r="B43" s="11" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="77"/>
+      <c r="B46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C46" s="14">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D46" s="14">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E46" s="15">
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="73"/>
-      <c r="B44" s="11" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="77"/>
+      <c r="B47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C47" s="14">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D47" s="14">
         <v>0.86799999999999999</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E47" s="15">
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E49" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="11" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C50" s="14">
         <v>0.71</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D50" s="14">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E50" s="15">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="73" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C51" s="14">
         <v>0.998</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D51" s="14">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E51" s="15">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="73"/>
-      <c r="B49" s="11" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="77"/>
+      <c r="B52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C52" s="14">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D52" s="14">
         <v>0.877</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E52" s="15">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="73"/>
-      <c r="B50" s="11" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="77"/>
+      <c r="B53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C53" s="14">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D53" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E53" s="15">
         <v>0.82</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="73"/>
-      <c r="B51" s="11" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="77"/>
+      <c r="B54" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C54" s="14">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D54" s="14">
         <v>0.91</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E54" s="15">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="73"/>
-      <c r="B52" s="11" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" s="77"/>
+      <c r="B55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C55" s="14">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D55" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E55" s="15">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="73"/>
-      <c r="B53" s="11" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="77"/>
+      <c r="B56" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C56" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D56" s="14">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E56" s="15">
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="73"/>
-      <c r="B54" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0.629</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="73"/>
-      <c r="B55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="E55" s="15">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="14">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D56" s="14">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E56" s="15">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G56" s="20">
-        <v>0.94400000000000006</v>
-      </c>
-    </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="73"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="14">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.629</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="77"/>
+      <c r="B58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="77"/>
+      <c r="B60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="14">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D60" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E60" s="15">
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="11" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C58" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="D58" s="14">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E58" s="19">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="C61" s="14">
         <v>0.998</v>
       </c>
       <c r="D61" s="14">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E61" s="19">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0.998</v>
+      </c>
+      <c r="D64" s="14">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E64" s="15">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="73"/>
-      <c r="B62" s="11" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="77"/>
+      <c r="B65" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C65" s="14">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D65" s="14">
         <v>0.877</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E65" s="15">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="73"/>
-      <c r="B63" s="11" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="77"/>
+      <c r="B66" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C66" s="14">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D66" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E66" s="15">
         <v>0.82</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="73"/>
-      <c r="B64" s="11" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="77"/>
+      <c r="B67" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C67" s="14">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D67" s="14">
         <v>0.91</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E67" s="15">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="73"/>
-      <c r="B65" s="11" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="77"/>
+      <c r="B68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C68" s="14">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D68" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E68" s="15">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="73"/>
-      <c r="B66" s="11" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="77"/>
+      <c r="B69" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C69" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D69" s="14">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E69" s="15">
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="73"/>
-      <c r="B67" s="11" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="77"/>
+      <c r="B70" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C70" s="14">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D70" s="14">
         <v>0.629</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E70" s="15">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="73"/>
-      <c r="B68" s="11" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="77"/>
+      <c r="B71" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C71" s="14">
         <v>0.96</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D71" s="14">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E71" s="15">
         <v>0.86</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="11" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B72" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C72" s="14">
         <v>0.998</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D72" s="14">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E72" s="19">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="74" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="73" t="s">
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C74" s="14">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D74" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E74" s="15">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="73"/>
-      <c r="B72" s="11" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="77"/>
+      <c r="B75" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C75" s="14">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D75" s="14">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E75" s="15">
         <v>0.875</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="73"/>
-      <c r="B73" s="11" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="77"/>
+      <c r="B76" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C76" s="14">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D76" s="14">
         <v>0.874</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E76" s="15">
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="73"/>
-      <c r="B74" s="11" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="77"/>
+      <c r="B77" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C74" s="14">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="E74" s="15">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="73"/>
-      <c r="B75" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="14">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="D75" s="14">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E75" s="15">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="73"/>
-      <c r="B76" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="14">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="E76" s="15">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="73"/>
-      <c r="B77" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C77" s="14">
         <v>0.97799999999999998</v>
@@ -17727,95 +16712,140 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="73"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E78" s="15">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="77"/>
+      <c r="B79" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E79" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="77"/>
+      <c r="B80" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="77"/>
+      <c r="B81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C81" s="14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D81" s="14">
         <v>0.871</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E81" s="15">
         <v>0.871</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="11" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C82" s="14">
         <v>0.996</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D82" s="14">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E82" s="19">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:5">
+      <c r="B83" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C83" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D83" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E83" s="3">
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="1" t="s">
+    <row r="84" spans="1:5">
+      <c r="B84" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C84" s="2">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D84" s="2">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E84" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="1:5">
+      <c r="B85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C85" s="2">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D85" s="2">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E85" s="3">
         <v>0.94499999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17824,10 +16854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D265F588-EE28-834F-B7A4-9F223E464BDD}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O110" sqref="K102:O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17838,6 +16868,9 @@
     <col min="4" max="4" width="13.1640625" style="17" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="17"/>
     <col min="7" max="7" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1">
@@ -17855,19 +16888,19 @@
       <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>79</v>
+      <c r="C2" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D2" s="27">
         <v>0.96099999999999997</v>
@@ -17896,21 +16929,21 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="78"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="38">
         <v>0.999</v>
       </c>
       <c r="E3" s="14">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="39">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="45">
         <f t="shared" ref="G3:G29" si="0">AVERAGE(D3:F3)</f>
         <v>0.95633333333333326</v>
       </c>
@@ -17928,8 +16961,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="78"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="13" t="s">
         <v>83</v>
       </c>
@@ -17960,10 +16993,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" thickBot="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="38" t="s">
-        <v>88</v>
+      <c r="A5" s="86"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="D5" s="30">
         <v>0.94699999999999995</v>
@@ -17992,12 +17025,12 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="78"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>79</v>
+      <c r="C6" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D6" s="27">
         <v>0.67400000000000004</v>
@@ -18026,8 +17059,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="78"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
@@ -18058,8 +17091,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="78"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="13" t="s">
         <v>83</v>
       </c>
@@ -18090,10 +17123,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="38" t="s">
-        <v>88</v>
+      <c r="A9" s="86"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="D9" s="30">
         <v>0.89900000000000002</v>
@@ -18122,12 +17155,12 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="78"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>79</v>
+      <c r="C10" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D10" s="27">
         <v>0.78600000000000003</v>
@@ -18156,8 +17189,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="78"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="13" t="s">
         <v>84</v>
       </c>
@@ -18188,8 +17221,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="78"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="13" t="s">
         <v>83</v>
       </c>
@@ -18220,21 +17253,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="45">
+      <c r="A13" s="86"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="41">
         <v>1</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="41">
         <v>0.94399999999999995</v>
       </c>
       <c r="F13" s="31">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="45">
         <f t="shared" si="0"/>
         <v>0.96033333333333337</v>
       </c>
@@ -18252,12 +17285,12 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="78"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>79</v>
+      <c r="C14" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D14" s="27">
         <v>0.78600000000000003</v>
@@ -18286,8 +17319,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="13" t="s">
         <v>84</v>
       </c>
@@ -18318,8 +17351,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="13" t="s">
         <v>83</v>
       </c>
@@ -18350,10 +17383,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" thickBot="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="39" t="s">
-        <v>88</v>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="D17" s="26">
         <v>0.82299999999999995</v>
@@ -18361,7 +17394,7 @@
       <c r="E17" s="26">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <v>0.89400000000000002</v>
       </c>
       <c r="G17" s="17">
@@ -18382,12 +17415,12 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>79</v>
+      <c r="C18" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D18" s="27">
         <v>0.78600000000000003</v>
@@ -18416,9 +17449,9 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="78"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="33" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="14">
@@ -18448,9 +17481,9 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="78"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="34" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="14">
@@ -18480,15 +17513,15 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" thickBot="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="35" t="s">
-        <v>88</v>
+      <c r="A21" s="86"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="D21" s="30">
         <v>0.94099999999999995</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="41">
         <v>0.93799999999999994</v>
       </c>
       <c r="F21" s="31">
@@ -18512,25 +17545,25 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="46">
+      <c r="C22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="42">
         <v>0.997</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="42">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="43">
         <v>0.95</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="45">
         <f t="shared" si="0"/>
         <v>0.96266666666666667</v>
       </c>
@@ -18548,8 +17581,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="78"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="13" t="s">
         <v>83</v>
       </c>
@@ -18580,8 +17613,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="78"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="13" t="s">
         <v>84</v>
       </c>
@@ -18612,21 +17645,21 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="45">
+      <c r="A25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="41">
         <v>0.997</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="41">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="44">
         <v>0.95</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="45">
         <f t="shared" si="0"/>
         <v>0.96300000000000008</v>
       </c>
@@ -18644,14 +17677,14 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>79</v>
+      <c r="C26" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="27">
         <v>0.998</v>
@@ -18679,11 +17712,11 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="13" t="s">
-        <v>88</v>
+    <row r="27" spans="1:11" ht="17" thickBot="1">
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="D27" s="14">
         <v>0.998</v>
@@ -18712,8 +17745,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="13" t="s">
         <v>84</v>
       </c>
@@ -18744,9 +17777,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" thickBot="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="38" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="30">
@@ -18794,10 +17827,10 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="77" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -18814,8 +17847,8 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="11" t="s">
         <v>96</v>
       </c>
@@ -18830,10 +17863,10 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="77" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -18850,8 +17883,8 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="11" t="s">
         <v>96</v>
       </c>
@@ -18866,10 +17899,10 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="77" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -18886,8 +17919,8 @@
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="11" t="s">
         <v>96</v>
       </c>
@@ -18900,15 +17933,15 @@
       <c r="G38" s="14">
         <v>0.90400000000000003</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="77" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -18925,8 +17958,8 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="11" t="s">
         <v>101</v>
       </c>
@@ -18941,26 +17974,26 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="17" thickBot="1">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73" t="s">
+      <c r="B41" s="77"/>
+      <c r="C41" s="77" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="41">
         <v>0.997</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="41">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="44">
         <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="11" t="s">
         <v>99</v>
       </c>
@@ -18999,13 +18032,13 @@
       <c r="C47" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="54">
         <v>0.997</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="54">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="55">
         <v>0.95</v>
       </c>
     </row>
@@ -19013,13 +18046,13 @@
       <c r="C48" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="56">
         <v>0.999</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="56">
         <v>0.91900000000000004</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="56">
         <v>0.95299999999999996</v>
       </c>
     </row>
@@ -19027,13 +18060,13 @@
       <c r="C49" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="56">
         <v>0.999</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="56">
         <v>0.91900000000000004</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="56">
         <v>0.95299999999999996</v>
       </c>
     </row>
@@ -19041,13 +18074,13 @@
       <c r="C50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="56">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="56">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F50" s="61">
+      <c r="F50" s="56">
         <v>0.93</v>
       </c>
     </row>
@@ -19069,7 +18102,7 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="77" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -19086,7 +18119,7 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="73"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="11" t="s">
         <v>120</v>
       </c>
@@ -19101,10 +18134,10 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="57" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="14">
@@ -19118,7 +18151,7 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="73"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="11" t="s">
         <v>120</v>
       </c>
@@ -19133,10 +18166,10 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="57" t="s">
         <v>118</v>
       </c>
       <c r="D57" s="14">
@@ -19150,7 +18183,7 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="73"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="11" t="s">
         <v>120</v>
       </c>
@@ -19165,24 +18198,24 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="17" thickBot="1">
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="41">
         <v>0.997</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="44">
         <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="73"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="11" t="s">
         <v>120</v>
       </c>
@@ -19196,148 +18229,385 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="107" spans="5:7" ht="17" thickBot="1"/>
-    <row r="108" spans="5:7">
-      <c r="E108" s="63">
+    <row r="87" spans="12:14">
+      <c r="L87" s="58">
+        <v>0.999</v>
+      </c>
+      <c r="M87" s="58">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N87" s="58">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="12:14">
+      <c r="L88" s="58">
         <v>0.998</v>
       </c>
-      <c r="F108" s="63">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="G108" s="64">
+      <c r="M88" s="58">
+        <v>0.92</v>
+      </c>
+      <c r="N88" s="58">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="89" spans="12:14">
+      <c r="L89" s="58">
+        <v>1</v>
+      </c>
+      <c r="M89" s="58">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="N89" s="58">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="12:14">
+      <c r="L90" s="58">
+        <v>0.999</v>
+      </c>
+      <c r="M90" s="58">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N90" s="58">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="91" spans="12:14">
+      <c r="L91" s="58">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="M91" s="58">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="N91" s="58">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="92" spans="12:14">
+      <c r="L92" s="58">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="M92" s="58">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N92" s="58">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="12:14" ht="17" thickBot="1">
+      <c r="L93" s="64">
+        <v>0.997</v>
+      </c>
+      <c r="M93" s="64">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="N93" s="65">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="12:14">
+      <c r="L94" s="58">
+        <v>0.996</v>
+      </c>
+      <c r="M94" s="58">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N94" s="48">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="5:15">
+      <c r="K102" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L102" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M102" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="5:15">
+      <c r="K103" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M103" s="75">
+        <f>L87*100</f>
+        <v>99.9</v>
+      </c>
+      <c r="N103" s="75">
+        <f t="shared" ref="N103:O103" si="4">M87*100</f>
+        <v>92.600000000000009</v>
+      </c>
+      <c r="O103" s="75">
+        <f t="shared" si="4"/>
+        <v>94.399999999999991</v>
+      </c>
+    </row>
+    <row r="104" spans="5:15">
+      <c r="K104" s="80"/>
+      <c r="L104" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M104" s="75">
+        <f t="shared" ref="M104:O110" si="5">L88*100</f>
+        <v>99.8</v>
+      </c>
+      <c r="N104" s="75">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="O104" s="75">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="5:15">
+      <c r="E105" s="58">
+        <v>0.998</v>
+      </c>
+      <c r="F105" s="58">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G105" s="59">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="109" spans="5:7">
-      <c r="E109" s="65">
-        <v>0.998</v>
-      </c>
-      <c r="F109" s="65">
+      <c r="K105" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M105" s="75">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N105" s="75">
+        <f t="shared" si="5"/>
+        <v>94.399999999999991</v>
+      </c>
+      <c r="O105" s="75">
+        <f t="shared" si="5"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="106" spans="5:15">
+      <c r="E106" s="58">
+        <v>0.997</v>
+      </c>
+      <c r="F106" s="58">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G106" s="59">
         <v>0.91700000000000004</v>
       </c>
-      <c r="G109" s="66">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="110" spans="5:7">
-      <c r="E110" s="65">
+      <c r="K106" s="80"/>
+      <c r="L106" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M106" s="75">
+        <f t="shared" si="5"/>
+        <v>99.9</v>
+      </c>
+      <c r="N106" s="75">
+        <f t="shared" si="5"/>
+        <v>91.8</v>
+      </c>
+      <c r="O106" s="75">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="5:15" ht="17" thickBot="1">
+      <c r="E107" s="54">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F107" s="54">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G107" s="60">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K107" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M107" s="75">
+        <f t="shared" si="5"/>
+        <v>94.1</v>
+      </c>
+      <c r="N107" s="75">
+        <f t="shared" si="5"/>
+        <v>93.8</v>
+      </c>
+      <c r="O107" s="75">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="5:15">
+      <c r="K108" s="80"/>
+      <c r="L108" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M108" s="75">
+        <f t="shared" si="5"/>
+        <v>94.3</v>
+      </c>
+      <c r="N108" s="75">
+        <f t="shared" si="5"/>
+        <v>90.8</v>
+      </c>
+      <c r="O108" s="75">
+        <f t="shared" si="5"/>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="109" spans="5:15">
+      <c r="K109" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M109" s="75">
+        <f t="shared" si="5"/>
+        <v>99.7</v>
+      </c>
+      <c r="N109" s="75">
+        <f t="shared" si="5"/>
+        <v>94.199999999999989</v>
+      </c>
+      <c r="O109" s="75">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="5:15">
+      <c r="K110" s="80"/>
+      <c r="L110" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M110" s="75">
+        <f t="shared" si="5"/>
+        <v>99.6</v>
+      </c>
+      <c r="N110" s="75">
+        <f t="shared" si="5"/>
+        <v>91.600000000000009</v>
+      </c>
+      <c r="O110" s="75">
+        <f t="shared" si="5"/>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="61">
         <v>0.997</v>
       </c>
-      <c r="F110" s="65">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="G110" s="66">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="5:7" ht="17" thickBot="1">
-      <c r="E111" s="59">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="F111" s="59">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="G111" s="67">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
-      <c r="E117" s="68">
+      <c r="F113" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G113" s="62">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" s="58">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F114" s="58">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G114" s="63">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" s="58">
         <v>0.997</v>
       </c>
-      <c r="F117" s="68">
+      <c r="F115" s="58">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G115" s="63">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" ht="17" thickBot="1">
+      <c r="E116" s="64">
+        <v>0.997</v>
+      </c>
+      <c r="F116" s="64">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G116" s="65">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8" ht="17" thickBot="1">
+      <c r="E123" s="61">
+        <v>0.997</v>
+      </c>
+      <c r="F123" s="58">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G123" s="58">
+        <v>0.997</v>
+      </c>
+      <c r="H123" s="64">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8" ht="17" thickBot="1">
+      <c r="E124" s="61">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G117" s="69">
+      <c r="F124" s="58">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G124" s="58">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H124" s="64">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" ht="17" thickBot="1">
+      <c r="E125" s="62">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="118" spans="5:8">
-      <c r="E118" s="65">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="F118" s="65">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="G118" s="70">
+      <c r="F125" s="63">
         <v>0.77700000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="5:8">
-      <c r="E119" s="65">
-        <v>0.997</v>
-      </c>
-      <c r="F119" s="65">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="G119" s="70">
+      <c r="G125" s="63">
         <v>0.94699999999999995</v>
       </c>
-    </row>
-    <row r="120" spans="5:8" ht="17" thickBot="1">
-      <c r="E120" s="71">
-        <v>0.997</v>
-      </c>
-      <c r="F120" s="71">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G120" s="72">
+      <c r="H125" s="65">
         <v>0.95</v>
       </c>
     </row>
-    <row r="127" spans="5:8" ht="17" thickBot="1">
-      <c r="E127" s="68">
-        <v>0.997</v>
-      </c>
-      <c r="F127" s="65">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="G127" s="65">
-        <v>0.997</v>
-      </c>
-      <c r="H127" s="71">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8" ht="17" thickBot="1">
-      <c r="E128" s="68">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="F128" s="65">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="G128" s="65">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H128" s="71">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="129" spans="5:8" ht="17" thickBot="1">
-      <c r="E129" s="69">
-        <v>0.95</v>
-      </c>
-      <c r="F129" s="70">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="G129" s="70">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H129" s="72">
-        <v>0.95</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B33:B34"/>
+  <mergeCells count="27">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B18:B21"/>
@@ -19345,36 +18615,50 @@
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C53:F58 C59:C60 C60:F60">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:G40 D41 D42:G42">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87:N92 L94:N94">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19390,7 +18674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58570DC-9849-9E44-A564-513050B2792C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
@@ -19466,11 +18750,11 @@
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19484,10 +18768,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D673F2D-5B36-B445-BBD1-4A44E50B2325}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19495,380 +18779,380 @@
     <col min="1" max="1" width="19.1640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="16" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="24"/>
-    <col min="6" max="6" width="10.83203125" style="58"/>
+    <col min="6" max="6" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="48">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="48">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="48">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="0">AVERAGE(C2:E2)</f>
         <v>0.94533333333333325</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="48">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="48">
         <v>0.86899999999999999</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="48">
         <v>0.877</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="53">
         <f t="shared" si="0"/>
         <v>0.88099999999999989</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="88"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="48">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="48">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="48">
         <v>0.82099999999999995</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="53">
         <f t="shared" si="0"/>
         <v>0.8886666666666666</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="88"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="48">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="48">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="48">
         <v>0.92</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="53">
         <f t="shared" si="0"/>
         <v>0.86733333333333329</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="69">
         <v>0.998</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="69">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="69">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>0.95033333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="88"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="48">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="48">
         <v>0.877</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="48">
         <v>0.88600000000000001</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="53">
         <f t="shared" si="0"/>
         <v>0.91299999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="88"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="48">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="48">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="48">
         <v>0.82</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="53">
         <f t="shared" si="0"/>
         <v>0.874</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="88"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="48">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="48">
         <v>0.91</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="48">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="53">
         <f t="shared" si="0"/>
         <v>0.92899999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="88"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="48">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="48">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="48">
         <v>0.86399999999999999</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="53">
         <f t="shared" si="0"/>
         <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="88"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="69">
         <v>0.999</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="69">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="69">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="53">
         <f t="shared" si="0"/>
         <v>0.95633333333333326</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="88"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="48">
         <v>0.89900000000000002</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="48">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="48">
         <v>0.92700000000000005</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="53">
         <f t="shared" si="0"/>
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="88"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="69">
         <v>1</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="69">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="69">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="53">
         <f t="shared" si="0"/>
         <v>0.96033333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="88"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="48">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="48">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="48">
         <v>0.89400000000000002</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>0.876</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="88"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="48">
         <v>0.94099999999999995</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="48">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="48">
         <v>0.93</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="53">
         <f t="shared" si="0"/>
         <v>0.93633333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="48">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="48">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
         <v>0.94366666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="90"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="93"/>
+      <c r="B17" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="48">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="48">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="48">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
         <v>0.94433333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="48">
         <v>0.998</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="48">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="48">
         <v>0.91400000000000003</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="53">
         <f t="shared" si="0"/>
         <v>0.94166666666666676</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="53">
+      <c r="B19" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="69">
         <v>0.997</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="69">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="69">
         <v>0.95</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>0.96300000000000008</v>
       </c>
@@ -20125,11 +19409,669 @@
         <v>95</v>
       </c>
     </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="73">
+        <f>C2*100</f>
+        <v>98.4</v>
+      </c>
+      <c r="D54" s="73">
+        <f t="shared" ref="D54:E54" si="4">D2*100</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="E54" s="73">
+        <f t="shared" si="4"/>
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="73">
+        <f t="shared" ref="C55:D71" si="5">C3*100</f>
+        <v>89.7</v>
+      </c>
+      <c r="D55" s="73">
+        <f t="shared" si="5"/>
+        <v>86.9</v>
+      </c>
+      <c r="E55" s="73">
+        <f t="shared" ref="E55" si="6">E3*100</f>
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="96"/>
+      <c r="B56" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="73">
+        <f t="shared" si="5"/>
+        <v>96.1</v>
+      </c>
+      <c r="D56" s="73">
+        <f t="shared" si="5"/>
+        <v>88.4</v>
+      </c>
+      <c r="E56" s="73">
+        <f t="shared" ref="E56" si="7">E4*100</f>
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="96"/>
+      <c r="B57" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="73">
+        <f t="shared" si="5"/>
+        <v>78.600000000000009</v>
+      </c>
+      <c r="D57" s="73">
+        <f t="shared" si="5"/>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="E57" s="73">
+        <f t="shared" ref="E57" si="8">E5*100</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="73">
+        <f t="shared" si="5"/>
+        <v>99.8</v>
+      </c>
+      <c r="D58" s="73">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+      <c r="E58" s="73">
+        <f t="shared" ref="E58" si="9">E6*100</f>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="96"/>
+      <c r="B59" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="73">
+        <f t="shared" si="5"/>
+        <v>97.6</v>
+      </c>
+      <c r="D59" s="73">
+        <f t="shared" si="5"/>
+        <v>87.7</v>
+      </c>
+      <c r="E59" s="73">
+        <f t="shared" ref="E59" si="10">E7*100</f>
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="96"/>
+      <c r="B60" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="73">
+        <f t="shared" si="5"/>
+        <v>95.5</v>
+      </c>
+      <c r="D60" s="73">
+        <f t="shared" si="5"/>
+        <v>84.7</v>
+      </c>
+      <c r="E60" s="73">
+        <f t="shared" ref="E60" si="11">E8*100</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="96"/>
+      <c r="B61" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="73">
+        <f t="shared" si="5"/>
+        <v>97.3</v>
+      </c>
+      <c r="D61" s="73">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="E61" s="73">
+        <f t="shared" ref="E61" si="12">E9*100</f>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="96"/>
+      <c r="B62" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="73">
+        <f t="shared" si="5"/>
+        <v>86.3</v>
+      </c>
+      <c r="D62" s="73">
+        <f t="shared" si="5"/>
+        <v>84.7</v>
+      </c>
+      <c r="E62" s="73">
+        <f t="shared" ref="E62" si="13">E10*100</f>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="96"/>
+      <c r="B63" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="73">
+        <f t="shared" si="5"/>
+        <v>99.9</v>
+      </c>
+      <c r="D63" s="73">
+        <f t="shared" si="5"/>
+        <v>92.600000000000009</v>
+      </c>
+      <c r="E63" s="73">
+        <f t="shared" ref="E63" si="14">E11*100</f>
+        <v>94.399999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="96"/>
+      <c r="B64" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="73">
+        <f t="shared" si="5"/>
+        <v>89.9</v>
+      </c>
+      <c r="D64" s="73">
+        <f t="shared" si="5"/>
+        <v>92.800000000000011</v>
+      </c>
+      <c r="E64" s="73">
+        <f t="shared" ref="E64" si="15">E12*100</f>
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="96"/>
+      <c r="B65" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="73">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D65" s="73">
+        <f t="shared" si="5"/>
+        <v>94.399999999999991</v>
+      </c>
+      <c r="E65" s="73">
+        <f t="shared" ref="E65" si="16">E13*100</f>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="96"/>
+      <c r="B66" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="73">
+        <f t="shared" si="5"/>
+        <v>82.3</v>
+      </c>
+      <c r="D66" s="73">
+        <f t="shared" si="5"/>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="E66" s="73">
+        <f t="shared" ref="E66" si="17">E14*100</f>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="96"/>
+      <c r="B67" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="73">
+        <f t="shared" si="5"/>
+        <v>94.1</v>
+      </c>
+      <c r="D67" s="73">
+        <f t="shared" si="5"/>
+        <v>93.8</v>
+      </c>
+      <c r="E67" s="73">
+        <f t="shared" ref="E67" si="18">E15*100</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="73">
+        <f t="shared" si="5"/>
+        <v>98.4</v>
+      </c>
+      <c r="D68" s="73">
+        <f t="shared" si="5"/>
+        <v>90.9</v>
+      </c>
+      <c r="E68" s="73">
+        <f t="shared" ref="E68" si="19">E16*100</f>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="93"/>
+      <c r="B69" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="73">
+        <f t="shared" si="5"/>
+        <v>98.6</v>
+      </c>
+      <c r="D69" s="73">
+        <f t="shared" si="5"/>
+        <v>91.3</v>
+      </c>
+      <c r="E69" s="73">
+        <f t="shared" ref="E69" si="20">E17*100</f>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="73">
+        <f t="shared" si="5"/>
+        <v>99.8</v>
+      </c>
+      <c r="D70" s="73">
+        <f t="shared" si="5"/>
+        <v>91.3</v>
+      </c>
+      <c r="E70" s="73">
+        <f t="shared" ref="E70" si="21">E18*100</f>
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="73">
+        <f t="shared" si="5"/>
+        <v>99.7</v>
+      </c>
+      <c r="D71" s="73">
+        <f t="shared" si="5"/>
+        <v>94.199999999999989</v>
+      </c>
+      <c r="E71" s="73">
+        <f t="shared" ref="E71" si="22">E19*100</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="74">
+        <v>98.4</v>
+      </c>
+      <c r="D75" s="74">
+        <v>91.100000000000009</v>
+      </c>
+      <c r="E75" s="74">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="74">
+        <v>89.7</v>
+      </c>
+      <c r="D76" s="74">
+        <v>86.9</v>
+      </c>
+      <c r="E76" s="74">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="95"/>
+      <c r="B77" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="74">
+        <v>96.1</v>
+      </c>
+      <c r="D77" s="74">
+        <v>88.4</v>
+      </c>
+      <c r="E77" s="74">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="95"/>
+      <c r="B78" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="74">
+        <v>78.600000000000009</v>
+      </c>
+      <c r="D78" s="74">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="E78" s="74">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="74">
+        <v>99.8</v>
+      </c>
+      <c r="D79" s="74">
+        <v>91.5</v>
+      </c>
+      <c r="E79" s="74">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="95"/>
+      <c r="B80" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="74">
+        <v>97.6</v>
+      </c>
+      <c r="D80" s="74">
+        <v>87.7</v>
+      </c>
+      <c r="E80" s="74">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="95"/>
+      <c r="B81" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="74">
+        <v>95.5</v>
+      </c>
+      <c r="D81" s="74">
+        <v>84.7</v>
+      </c>
+      <c r="E81" s="74">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="95"/>
+      <c r="B82" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="74">
+        <v>97.3</v>
+      </c>
+      <c r="D82" s="74">
+        <v>91</v>
+      </c>
+      <c r="E82" s="74">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="95"/>
+      <c r="B83" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="74">
+        <v>86.3</v>
+      </c>
+      <c r="D83" s="74">
+        <v>84.7</v>
+      </c>
+      <c r="E83" s="74">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="95"/>
+      <c r="B84" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="74">
+        <v>99.9</v>
+      </c>
+      <c r="D84" s="74">
+        <v>92.600000000000009</v>
+      </c>
+      <c r="E84" s="74">
+        <v>94.399999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="95"/>
+      <c r="B85" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="74">
+        <v>89.9</v>
+      </c>
+      <c r="D85" s="74">
+        <v>92.800000000000011</v>
+      </c>
+      <c r="E85" s="74">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="95"/>
+      <c r="B86" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="74">
+        <v>100</v>
+      </c>
+      <c r="D86" s="74">
+        <v>94.399999999999991</v>
+      </c>
+      <c r="E86" s="74">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="95"/>
+      <c r="B87" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="74">
+        <v>82.3</v>
+      </c>
+      <c r="D87" s="74">
+        <v>91.100000000000009</v>
+      </c>
+      <c r="E87" s="74">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="95"/>
+      <c r="B88" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="74">
+        <v>94.1</v>
+      </c>
+      <c r="D88" s="74">
+        <v>93.8</v>
+      </c>
+      <c r="E88" s="74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="74">
+        <v>98.4</v>
+      </c>
+      <c r="D89" s="74">
+        <v>90.9</v>
+      </c>
+      <c r="E89" s="74">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="95"/>
+      <c r="B90" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="74">
+        <v>98.6</v>
+      </c>
+      <c r="D90" s="74">
+        <v>91.3</v>
+      </c>
+      <c r="E90" s="74">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="74">
+        <v>99.8</v>
+      </c>
+      <c r="D91" s="74">
+        <v>91.3</v>
+      </c>
+      <c r="E91" s="74">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="74">
+        <v>99.7</v>
+      </c>
+      <c r="D92" s="74">
+        <v>94.199999999999989</v>
+      </c>
+      <c r="E92" s="74">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20138,6 +20080,543 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF2286C-D776-8149-9E28-B1FD4B1D044C}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="9" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J2" s="67">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="K2" s="67">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="P14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="P15" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="72">
+        <v>0.999</v>
+      </c>
+      <c r="R15" s="72">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="S15" s="72">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="P16" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="72">
+        <v>1</v>
+      </c>
+      <c r="R16" s="72">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="S16" s="72">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="P17" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="72">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="R17" s="72">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="S17" s="72">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="17" thickBot="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="P18" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0.997</v>
+      </c>
+      <c r="R18" s="30">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="S18" s="71">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+    </row>
+    <row r="35" spans="16:19">
+      <c r="P35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="16:19">
+      <c r="P36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="16:19">
+      <c r="P37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="16:19">
+      <c r="P38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="16:19">
+      <c r="P39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Q15:S17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FEE69-6AFA-E64B-9C63-BFAAA10E422A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
